--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2163</v>
+        <v>2167.314610709427</v>
       </c>
       <c r="C2">
-        <v>1509</v>
+        <v>1511.213283282402</v>
       </c>
       <c r="D2">
-        <v>1233</v>
+        <v>1229.363949408971</v>
       </c>
       <c r="E2">
-        <v>2201</v>
+        <v>2205.423038560061</v>
       </c>
       <c r="F2">
-        <v>2167</v>
+        <v>2170.085420450942</v>
       </c>
       <c r="G2">
-        <v>1982</v>
+        <v>1984.399082413055</v>
       </c>
       <c r="H2">
-        <v>2202</v>
+        <v>2206.848774439267</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2179</v>
+        <v>2183.632415180711</v>
       </c>
       <c r="C3">
-        <v>1525</v>
+        <v>1528.33010704203</v>
       </c>
       <c r="D3">
-        <v>1088</v>
+        <v>1085.127383123723</v>
       </c>
       <c r="E3">
-        <v>2203</v>
+        <v>2208.593229574046</v>
       </c>
       <c r="F3">
-        <v>2181</v>
+        <v>2184.918646513586</v>
       </c>
       <c r="G3">
-        <v>1960</v>
+        <v>1961.485732241424</v>
       </c>
       <c r="H3">
-        <v>2203</v>
+        <v>2209.291490143483</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2129</v>
+        <v>2131.347061543535</v>
       </c>
       <c r="C4">
-        <v>1538</v>
+        <v>1540.626423965915</v>
       </c>
       <c r="D4">
-        <v>1084</v>
+        <v>1078.054668413406</v>
       </c>
       <c r="E4">
-        <v>2189</v>
+        <v>2192.085558436731</v>
       </c>
       <c r="F4">
-        <v>2132</v>
+        <v>2135.372170126485</v>
       </c>
       <c r="G4">
-        <v>1963</v>
+        <v>1962.522550761016</v>
       </c>
       <c r="H4">
-        <v>2191</v>
+        <v>2194.109350309947</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2183</v>
+        <v>2185.449126116547</v>
       </c>
       <c r="C5">
-        <v>1542</v>
+        <v>1546.222606126279</v>
       </c>
       <c r="D5">
-        <v>1139</v>
+        <v>1117.624230808347</v>
       </c>
       <c r="E5">
-        <v>2201</v>
+        <v>2206.043190708929</v>
       </c>
       <c r="F5">
-        <v>2183</v>
+        <v>2186.274067604017</v>
       </c>
       <c r="G5">
-        <v>1928</v>
+        <v>1923.028305113323</v>
       </c>
       <c r="H5">
-        <v>2202</v>
+        <v>2206.671397389214</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189</v>
+        <v>2191.656695839558</v>
       </c>
       <c r="C6">
-        <v>1532</v>
+        <v>1536.915018266464</v>
       </c>
       <c r="D6">
-        <v>385</v>
+        <v>382.5936118305735</v>
       </c>
       <c r="E6">
-        <v>2208</v>
+        <v>2213.253418125554</v>
       </c>
       <c r="F6">
-        <v>2189</v>
+        <v>2192.367416912643</v>
       </c>
       <c r="G6">
-        <v>1625</v>
+        <v>1625.470157090052</v>
       </c>
       <c r="H6">
-        <v>2208</v>
+        <v>2213.597321349207</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2171</v>
+        <v>2172.86595052552</v>
       </c>
       <c r="C7">
-        <v>1562</v>
+        <v>1564.451171895376</v>
       </c>
       <c r="D7">
-        <v>579</v>
+        <v>572.1422959108772</v>
       </c>
       <c r="E7">
-        <v>2197</v>
+        <v>2200.677181678597</v>
       </c>
       <c r="F7">
-        <v>2172</v>
+        <v>2174.458556810208</v>
       </c>
       <c r="G7">
-        <v>1685</v>
+        <v>1681.95337263134</v>
       </c>
       <c r="H7">
-        <v>2199</v>
+        <v>2201.945082437705</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2172</v>
+        <v>2173.684592583933</v>
       </c>
       <c r="C8">
-        <v>1483</v>
+        <v>1485.222641346011</v>
       </c>
       <c r="D8">
-        <v>663</v>
+        <v>656.094413528098</v>
       </c>
       <c r="E8">
-        <v>2193</v>
+        <v>2196.697326503753</v>
       </c>
       <c r="F8">
-        <v>2173</v>
+        <v>2174.349416912381</v>
       </c>
       <c r="G8">
-        <v>1669</v>
+        <v>1665.712715699316</v>
       </c>
       <c r="H8">
-        <v>2194</v>
+        <v>2197.242565447381</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2184</v>
+        <v>2187.12321845688</v>
       </c>
       <c r="C9">
-        <v>1548</v>
+        <v>1548.913673198975</v>
       </c>
       <c r="D9">
-        <v>653</v>
+        <v>641.685215767798</v>
       </c>
       <c r="E9">
-        <v>2196</v>
+        <v>2200.595623566658</v>
       </c>
       <c r="F9">
-        <v>2185</v>
+        <v>2188.916812052127</v>
       </c>
       <c r="G9">
-        <v>1690</v>
+        <v>1687.562082513365</v>
       </c>
       <c r="H9">
-        <v>2197</v>
+        <v>2202.093252104228</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1934</v>
+        <v>1937.729501449272</v>
       </c>
       <c r="C10">
-        <v>1648</v>
+        <v>1647.746076806086</v>
       </c>
       <c r="D10">
-        <v>1162</v>
+        <v>1143.705851369911</v>
       </c>
       <c r="E10">
-        <v>2094</v>
+        <v>2097.389136720578</v>
       </c>
       <c r="F10">
-        <v>1971</v>
+        <v>1970.567967502973</v>
       </c>
       <c r="G10">
-        <v>1917</v>
+        <v>1909.025596153625</v>
       </c>
       <c r="H10">
-        <v>2112</v>
+        <v>2111.90225829121</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1881</v>
+        <v>1884.386919791947</v>
       </c>
       <c r="C11">
-        <v>1675</v>
+        <v>1678.467432057428</v>
       </c>
       <c r="D11">
-        <v>985</v>
+        <v>967.7911373584814</v>
       </c>
       <c r="E11">
-        <v>2100</v>
+        <v>2104.203142466426</v>
       </c>
       <c r="F11">
-        <v>1908</v>
+        <v>1908.487280735242</v>
       </c>
       <c r="G11">
-        <v>1893</v>
+        <v>1890.486000554413</v>
       </c>
       <c r="H11">
-        <v>2108</v>
+        <v>2111.254853176406</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1612</v>
+        <v>1614.595651276729</v>
       </c>
       <c r="C12">
-        <v>1618</v>
+        <v>1616.42836104628</v>
       </c>
       <c r="D12">
-        <v>283</v>
+        <v>267.2320334165278</v>
       </c>
       <c r="E12">
-        <v>1991</v>
+        <v>1991.94078381052</v>
       </c>
       <c r="F12">
-        <v>1622</v>
+        <v>1624.389466078262</v>
       </c>
       <c r="G12">
-        <v>1677</v>
+        <v>1669.150632374289</v>
       </c>
       <c r="H12">
-        <v>1994</v>
+        <v>1993.751378557799</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1915</v>
+        <v>1919.499697099683</v>
       </c>
       <c r="C13">
-        <v>1642</v>
+        <v>1641.824615553334</v>
       </c>
       <c r="D13">
-        <v>916</v>
+        <v>891.4134588035242</v>
       </c>
       <c r="E13">
-        <v>2085</v>
+        <v>2087.825279412683</v>
       </c>
       <c r="F13">
-        <v>1935</v>
+        <v>1936.788313670181</v>
       </c>
       <c r="G13">
-        <v>1846</v>
+        <v>1835.465197322763</v>
       </c>
       <c r="H13">
-        <v>2093</v>
+        <v>2094.715307719508</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2167.314610709427</v>
+        <v>2160.405016793821</v>
       </c>
       <c r="C2">
-        <v>1511.213283282402</v>
+        <v>1635.979465759045</v>
       </c>
       <c r="D2">
-        <v>1229.363949408971</v>
+        <v>1127.317454448027</v>
       </c>
       <c r="E2">
-        <v>2205.423038560061</v>
+        <v>2200.639230705512</v>
       </c>
       <c r="F2">
-        <v>2170.085420450942</v>
+        <v>2162.770988423428</v>
       </c>
       <c r="G2">
-        <v>1984.399082413055</v>
+        <v>1947.198370555816</v>
       </c>
       <c r="H2">
-        <v>2206.848774439267</v>
+        <v>2201.668759156421</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2183.632415180711</v>
+        <v>2173.726722037044</v>
       </c>
       <c r="C3">
-        <v>1528.33010704203</v>
+        <v>1531.703068245188</v>
       </c>
       <c r="D3">
-        <v>1085.127383123723</v>
+        <v>1080.389299681654</v>
       </c>
       <c r="E3">
-        <v>2208.593229574046</v>
+        <v>2205.719803397429</v>
       </c>
       <c r="F3">
-        <v>2184.918646513586</v>
+        <v>2175.325221721286</v>
       </c>
       <c r="G3">
-        <v>1961.485732241424</v>
+        <v>1951.750355279651</v>
       </c>
       <c r="H3">
-        <v>2209.291490143483</v>
+        <v>2206.49286634855</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2131.347061543535</v>
+        <v>2134.412564788786</v>
       </c>
       <c r="C4">
-        <v>1540.626423965915</v>
+        <v>1517.710587603399</v>
       </c>
       <c r="D4">
-        <v>1078.054668413406</v>
+        <v>1196.886660197058</v>
       </c>
       <c r="E4">
-        <v>2192.085558436731</v>
+        <v>2194.661957547196</v>
       </c>
       <c r="F4">
-        <v>2135.372170126485</v>
+        <v>2140.541141192431</v>
       </c>
       <c r="G4">
-        <v>1962.522550761016</v>
+        <v>1971.00519488374</v>
       </c>
       <c r="H4">
-        <v>2194.109350309947</v>
+        <v>2198.182442276547</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2185.449126116547</v>
+        <v>2186.478507089998</v>
       </c>
       <c r="C5">
-        <v>1546.222606126279</v>
+        <v>1514.44998739471</v>
       </c>
       <c r="D5">
-        <v>1117.624230808347</v>
+        <v>1174.105954175103</v>
       </c>
       <c r="E5">
-        <v>2206.043190708929</v>
+        <v>2203.867710797489</v>
       </c>
       <c r="F5">
-        <v>2186.274067604017</v>
+        <v>2187.123220910705</v>
       </c>
       <c r="G5">
-        <v>1923.028305113323</v>
+        <v>1935.555074137375</v>
       </c>
       <c r="H5">
-        <v>2206.671397389214</v>
+        <v>2204.296286586985</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2191.656695839558</v>
+        <v>2189.868220314056</v>
       </c>
       <c r="C6">
-        <v>1536.915018266464</v>
+        <v>1514.921941800854</v>
       </c>
       <c r="D6">
-        <v>382.5936118305735</v>
+        <v>378.0808617747576</v>
       </c>
       <c r="E6">
-        <v>2213.253418125554</v>
+        <v>2213.018487118169</v>
       </c>
       <c r="F6">
-        <v>2192.367416912643</v>
+        <v>2190.68193110597</v>
       </c>
       <c r="G6">
-        <v>1625.470157090052</v>
+        <v>1617.091840639814</v>
       </c>
       <c r="H6">
-        <v>2213.597321349207</v>
+        <v>2213.358526176298</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2172.86595052552</v>
+        <v>2181.624468065697</v>
       </c>
       <c r="C7">
-        <v>1564.451171895376</v>
+        <v>1517.397064725418</v>
       </c>
       <c r="D7">
-        <v>572.1422959108772</v>
+        <v>570.8199137885288</v>
       </c>
       <c r="E7">
-        <v>2200.677181678597</v>
+        <v>2203.383159260813</v>
       </c>
       <c r="F7">
-        <v>2174.458556810208</v>
+        <v>2182.511240437903</v>
       </c>
       <c r="G7">
-        <v>1681.95337263134</v>
+        <v>1664.660103553965</v>
       </c>
       <c r="H7">
-        <v>2201.945082437705</v>
+        <v>2204.059410162596</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2173.684592583933</v>
+        <v>2176.82140227915</v>
       </c>
       <c r="C8">
-        <v>1485.222641346011</v>
+        <v>1508.600389446138</v>
       </c>
       <c r="D8">
-        <v>656.094413528098</v>
+        <v>687.9863786627955</v>
       </c>
       <c r="E8">
-        <v>2196.697326503753</v>
+        <v>2210.043914823413</v>
       </c>
       <c r="F8">
-        <v>2174.349416912381</v>
+        <v>2177.901800256097</v>
       </c>
       <c r="G8">
-        <v>1665.712715699316</v>
+        <v>1703.525300497556</v>
       </c>
       <c r="H8">
-        <v>2197.242565447381</v>
+        <v>2210.526396742513</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2187.12321845688</v>
+        <v>2175.265994821138</v>
       </c>
       <c r="C9">
-        <v>1548.913673198975</v>
+        <v>1506.043863405003</v>
       </c>
       <c r="D9">
-        <v>641.685215767798</v>
+        <v>554.5039778401415</v>
       </c>
       <c r="E9">
-        <v>2200.595623566658</v>
+        <v>2195.962151382339</v>
       </c>
       <c r="F9">
-        <v>2188.916812052127</v>
+        <v>2176.373898606036</v>
       </c>
       <c r="G9">
-        <v>1687.562082513365</v>
+        <v>1654.469812483399</v>
       </c>
       <c r="H9">
-        <v>2202.093252104228</v>
+        <v>2196.785439124464</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1937.729501449272</v>
+        <v>1974.722720468327</v>
       </c>
       <c r="C10">
-        <v>1647.746076806086</v>
+        <v>1581.121243525304</v>
       </c>
       <c r="D10">
-        <v>1143.705851369911</v>
+        <v>993.7936064138909</v>
       </c>
       <c r="E10">
-        <v>2097.389136720578</v>
+        <v>2084.172718744583</v>
       </c>
       <c r="F10">
-        <v>1970.567967502973</v>
+        <v>1990.15645995858</v>
       </c>
       <c r="G10">
-        <v>1909.025596153625</v>
+        <v>1812.359405258146</v>
       </c>
       <c r="H10">
-        <v>2111.90225829121</v>
+        <v>2092.231383380354</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1884.386919791947</v>
+        <v>1925.147921430981</v>
       </c>
       <c r="C11">
-        <v>1678.467432057428</v>
+        <v>1631.072621653311</v>
       </c>
       <c r="D11">
-        <v>967.7911373584814</v>
+        <v>811.8385140409308</v>
       </c>
       <c r="E11">
-        <v>2104.203142466426</v>
+        <v>2088.182241572058</v>
       </c>
       <c r="F11">
-        <v>1908.487280735242</v>
+        <v>1939.989876005333</v>
       </c>
       <c r="G11">
-        <v>1890.486000554413</v>
+        <v>1808.517869828042</v>
       </c>
       <c r="H11">
-        <v>2111.254853176406</v>
+        <v>2093.034019470583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1614.595651276729</v>
+        <v>1580.0215196259</v>
       </c>
       <c r="C12">
-        <v>1616.42836104628</v>
+        <v>1513.674914180851</v>
       </c>
       <c r="D12">
-        <v>267.2320334165278</v>
+        <v>251.7223391072976</v>
       </c>
       <c r="E12">
-        <v>1991.94078381052</v>
+        <v>1919.932450611485</v>
       </c>
       <c r="F12">
-        <v>1624.389466078262</v>
+        <v>1590.308231528666</v>
       </c>
       <c r="G12">
-        <v>1669.150632374289</v>
+        <v>1562.647724764761</v>
       </c>
       <c r="H12">
-        <v>1993.751378557799</v>
+        <v>1922.26370782464</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1919.499697099683</v>
+        <v>1925.585034755581</v>
       </c>
       <c r="C13">
-        <v>1641.824615553334</v>
+        <v>1566.093583151848</v>
       </c>
       <c r="D13">
-        <v>891.4134588035242</v>
+        <v>757.2541987401806</v>
       </c>
       <c r="E13">
-        <v>2087.825279412683</v>
+        <v>2060.454494696883</v>
       </c>
       <c r="F13">
-        <v>1936.788313670181</v>
+        <v>1939.298716229611</v>
       </c>
       <c r="G13">
-        <v>1835.465197322763</v>
+        <v>1732.323497480271</v>
       </c>
       <c r="H13">
-        <v>2094.715307719508</v>
+        <v>2066.354802126078</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2160.405016793821</v>
+        <v>2160</v>
       </c>
       <c r="C2">
-        <v>1635.979465759045</v>
+        <v>1636</v>
       </c>
       <c r="D2">
-        <v>1127.317454448027</v>
+        <v>1127</v>
       </c>
       <c r="E2">
-        <v>2200.639230705512</v>
+        <v>2201</v>
       </c>
       <c r="F2">
-        <v>2162.770988423428</v>
+        <v>2163</v>
       </c>
       <c r="G2">
-        <v>1947.198370555816</v>
+        <v>1947</v>
       </c>
       <c r="H2">
-        <v>2201.668759156421</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2173.726722037044</v>
+        <v>2174</v>
       </c>
       <c r="C3">
-        <v>1531.703068245188</v>
+        <v>1532</v>
       </c>
       <c r="D3">
-        <v>1080.389299681654</v>
+        <v>1080</v>
       </c>
       <c r="E3">
-        <v>2205.719803397429</v>
+        <v>2206</v>
       </c>
       <c r="F3">
-        <v>2175.325221721286</v>
+        <v>2175</v>
       </c>
       <c r="G3">
-        <v>1951.750355279651</v>
+        <v>1952</v>
       </c>
       <c r="H3">
-        <v>2206.49286634855</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2134.412564788786</v>
+        <v>2134</v>
       </c>
       <c r="C4">
-        <v>1517.710587603399</v>
+        <v>1518</v>
       </c>
       <c r="D4">
-        <v>1196.886660197058</v>
+        <v>1197</v>
       </c>
       <c r="E4">
-        <v>2194.661957547196</v>
+        <v>2195</v>
       </c>
       <c r="F4">
-        <v>2140.541141192431</v>
+        <v>2141</v>
       </c>
       <c r="G4">
-        <v>1971.00519488374</v>
+        <v>1971</v>
       </c>
       <c r="H4">
-        <v>2198.182442276547</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186.478507089998</v>
+        <v>2186</v>
       </c>
       <c r="C5">
-        <v>1514.44998739471</v>
+        <v>1514</v>
       </c>
       <c r="D5">
-        <v>1174.105954175103</v>
+        <v>1174</v>
       </c>
       <c r="E5">
-        <v>2203.867710797489</v>
+        <v>2204</v>
       </c>
       <c r="F5">
-        <v>2187.123220910705</v>
+        <v>2187</v>
       </c>
       <c r="G5">
-        <v>1935.555074137375</v>
+        <v>1936</v>
       </c>
       <c r="H5">
-        <v>2204.296286586985</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189.868220314056</v>
+        <v>2190</v>
       </c>
       <c r="C6">
-        <v>1514.921941800854</v>
+        <v>1515</v>
       </c>
       <c r="D6">
-        <v>378.0808617747576</v>
+        <v>378</v>
       </c>
       <c r="E6">
-        <v>2213.018487118169</v>
+        <v>2213</v>
       </c>
       <c r="F6">
-        <v>2190.68193110597</v>
+        <v>2191</v>
       </c>
       <c r="G6">
-        <v>1617.091840639814</v>
+        <v>1617</v>
       </c>
       <c r="H6">
-        <v>2213.358526176298</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2181.624468065697</v>
+        <v>2182</v>
       </c>
       <c r="C7">
-        <v>1517.397064725418</v>
+        <v>1517</v>
       </c>
       <c r="D7">
-        <v>570.8199137885288</v>
+        <v>571</v>
       </c>
       <c r="E7">
-        <v>2203.383159260813</v>
+        <v>2203</v>
       </c>
       <c r="F7">
-        <v>2182.511240437903</v>
+        <v>2183</v>
       </c>
       <c r="G7">
-        <v>1664.660103553965</v>
+        <v>1665</v>
       </c>
       <c r="H7">
-        <v>2204.059410162596</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2176.82140227915</v>
+        <v>2177</v>
       </c>
       <c r="C8">
-        <v>1508.600389446138</v>
+        <v>1509</v>
       </c>
       <c r="D8">
-        <v>687.9863786627955</v>
+        <v>688</v>
       </c>
       <c r="E8">
-        <v>2210.043914823413</v>
+        <v>2210</v>
       </c>
       <c r="F8">
-        <v>2177.901800256097</v>
+        <v>2178</v>
       </c>
       <c r="G8">
-        <v>1703.525300497556</v>
+        <v>1704</v>
       </c>
       <c r="H8">
-        <v>2210.526396742513</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2175.265994821138</v>
+        <v>2175</v>
       </c>
       <c r="C9">
-        <v>1506.043863405003</v>
+        <v>1506</v>
       </c>
       <c r="D9">
-        <v>554.5039778401415</v>
+        <v>555</v>
       </c>
       <c r="E9">
-        <v>2195.962151382339</v>
+        <v>2196</v>
       </c>
       <c r="F9">
-        <v>2176.373898606036</v>
+        <v>2176</v>
       </c>
       <c r="G9">
-        <v>1654.469812483399</v>
+        <v>1654</v>
       </c>
       <c r="H9">
-        <v>2196.785439124464</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1974.722720468327</v>
+        <v>1975</v>
       </c>
       <c r="C10">
-        <v>1581.121243525304</v>
+        <v>1581</v>
       </c>
       <c r="D10">
-        <v>993.7936064138909</v>
+        <v>994</v>
       </c>
       <c r="E10">
-        <v>2084.172718744583</v>
+        <v>2084</v>
       </c>
       <c r="F10">
-        <v>1990.15645995858</v>
+        <v>1990</v>
       </c>
       <c r="G10">
-        <v>1812.359405258146</v>
+        <v>1812</v>
       </c>
       <c r="H10">
-        <v>2092.231383380354</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1925.147921430981</v>
+        <v>1925</v>
       </c>
       <c r="C11">
-        <v>1631.072621653311</v>
+        <v>1631</v>
       </c>
       <c r="D11">
-        <v>811.8385140409308</v>
+        <v>812</v>
       </c>
       <c r="E11">
-        <v>2088.182241572058</v>
+        <v>2088</v>
       </c>
       <c r="F11">
-        <v>1939.989876005333</v>
+        <v>1940</v>
       </c>
       <c r="G11">
-        <v>1808.517869828042</v>
+        <v>1809</v>
       </c>
       <c r="H11">
-        <v>2093.034019470583</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1580.0215196259</v>
+        <v>1580</v>
       </c>
       <c r="C12">
-        <v>1513.674914180851</v>
+        <v>1514</v>
       </c>
       <c r="D12">
-        <v>251.7223391072976</v>
+        <v>252</v>
       </c>
       <c r="E12">
-        <v>1919.932450611485</v>
+        <v>1920</v>
       </c>
       <c r="F12">
-        <v>1590.308231528666</v>
+        <v>1590</v>
       </c>
       <c r="G12">
-        <v>1562.647724764761</v>
+        <v>1563</v>
       </c>
       <c r="H12">
-        <v>1922.26370782464</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1925.585034755581</v>
+        <v>1926</v>
       </c>
       <c r="C13">
-        <v>1566.093583151848</v>
+        <v>1566</v>
       </c>
       <c r="D13">
-        <v>757.2541987401806</v>
+        <v>757</v>
       </c>
       <c r="E13">
-        <v>2060.454494696883</v>
+        <v>2060</v>
       </c>
       <c r="F13">
-        <v>1939.298716229611</v>
+        <v>1939</v>
       </c>
       <c r="G13">
-        <v>1732.323497480271</v>
+        <v>1732</v>
       </c>
       <c r="H13">
-        <v>2066.354802126078</v>
+        <v>2066</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middellaag.xlsx
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2173.726722037044</v>
+        <v>2173.726722037045</v>
       </c>
       <c r="C3">
         <v>1531.703068245188</v>
@@ -474,7 +474,7 @@
         <v>1951.750355279651</v>
       </c>
       <c r="H3">
-        <v>2206.49286634855</v>
+        <v>2206.492866348551</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -500,7 +500,7 @@
         <v>1971.00519488374</v>
       </c>
       <c r="H4">
-        <v>2198.182442276547</v>
+        <v>2198.182442276548</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186.478507089998</v>
+        <v>2186.478507089997</v>
       </c>
       <c r="C5">
         <v>1514.44998739471</v>
@@ -517,7 +517,7 @@
         <v>1174.105954175103</v>
       </c>
       <c r="E5">
-        <v>2203.867710797489</v>
+        <v>2203.86771079749</v>
       </c>
       <c r="F5">
         <v>2187.123220910705</v>
@@ -644,13 +644,13 @@
         <v>1581.121243525304</v>
       </c>
       <c r="D10">
-        <v>993.7936064138909</v>
+        <v>993.7936064138911</v>
       </c>
       <c r="E10">
         <v>2084.172718744583</v>
       </c>
       <c r="F10">
-        <v>1990.15645995858</v>
+        <v>1990.156459958579</v>
       </c>
       <c r="G10">
         <v>1812.359405258146</v>
@@ -696,7 +696,7 @@
         <v>1513.674914180851</v>
       </c>
       <c r="D12">
-        <v>251.7223391072976</v>
+        <v>251.7223391072975</v>
       </c>
       <c r="E12">
         <v>1919.932450611485</v>
@@ -734,7 +734,7 @@
         <v>1732.323497480271</v>
       </c>
       <c r="H13">
-        <v>2066.354802126078</v>
+        <v>2066.354802126079</v>
       </c>
     </row>
   </sheetData>
